--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids591_specific/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6682C068-6A23-E743-9D47-86DEBD6885AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EEE751-A3F8-8348-BEE4-65DB34D0E586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37120" windowHeight="19620" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -161,16 +161,6 @@
 - `Solving Performance Problems &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_</t>
   </si>
   <si>
-    <t>- `What is GIS? &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/10_gis_what_is_gis&gt;`_
-- `Installing Geopandas &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/15_gis_setup_geopanda&gt;`_
-- `Intro to Geopandas &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/20_gis_geopandas&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Projections &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/40_gis_projections&gt;`_
-- `Projections and Geopandas &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/50_gis_crs_geopandas&gt;`_
-- `GIS Data Formats &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/60_gis_data&gt;`_</t>
-  </si>
-  <si>
     <t>- Raster Data
 - Intro to Rasterio</t>
   </si>
@@ -238,12 +228,6 @@
     <t>- GIS</t>
   </si>
   <si>
-    <t>- `Mapping &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/70_gis_mapping&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Spatial Joins &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/30_gis_spatial_joins&gt;`_</t>
-  </si>
-  <si>
     <t>- Supervised ML</t>
   </si>
   <si>
@@ -256,6 +240,22 @@
   <si>
     <t>- Prediction versus Inference
 - Supervised ML Workflow</t>
+  </si>
+  <si>
+    <t>- `What is GIS? &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/10_gis_what_is_gis.html&gt;`_
+- `Installing Geopandas &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/15_gis_setup_geopanda.html&gt;`_
+- `Intro to Geopandas &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/20_gis_geopandas.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Mapping &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/70_gis_mapping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Spatial Joins &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/30_gis_spatial_joins.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Projections &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/40_gis_projections.html&gt;`_
+- `Projections and Geopandas &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/50_gis_crs_geopandas.html&gt;`_
+- `GIS Data Formats &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/60_gis_data.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,13 +682,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
@@ -739,22 +739,22 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -763,10 +763,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -774,10 +774,10 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -786,10 +786,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -798,10 +798,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -810,10 +810,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7"/>
     </row>
@@ -822,10 +822,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8"/>
     </row>
@@ -834,10 +834,10 @@
         <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8"/>
     </row>
@@ -846,10 +846,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -858,10 +858,10 @@
         <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -870,10 +870,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="8"/>
     </row>
@@ -882,10 +882,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -893,10 +893,10 @@
         <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -904,10 +904,10 @@
         <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -915,7 +915,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="10"/>
@@ -925,7 +925,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -935,10 +935,10 @@
         <v>33</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D24" s="7"/>
     </row>
@@ -947,10 +947,10 @@
         <v>34</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -959,10 +959,10 @@
         <v>35</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="8"/>
     </row>
@@ -971,10 +971,10 @@
         <v>36</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" s="8"/>
     </row>
@@ -983,10 +983,10 @@
         <v>37</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="8"/>
     </row>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EEE751-A3F8-8348-BEE4-65DB34D0E586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5B43A5-E0AD-5444-A444-5EA0F1AB657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37120" windowHeight="19620" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -242,20 +242,20 @@
 - Supervised ML Workflow</t>
   </si>
   <si>
-    <t>- `What is GIS? &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/10_gis_what_is_gis.html&gt;`_
-- `Installing Geopandas &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/15_gis_setup_geopanda.html&gt;`_
-- `Intro to Geopandas &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/20_gis_geopandas.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Mapping &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/70_gis_mapping.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Spatial Joins &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/30_gis_spatial_joins.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Projections &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/40_gis_projections.html&gt;`_
-- `Projections and Geopandas &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/50_gis_crs_geopandas.html&gt;`_
-- `GIS Data Formats &lt;../notebooks/PDS_not_yet_in_coursera/40_gis/60_gis_data.html&gt;`_</t>
+    <t>- `What is GIS? &lt;../notebooks/gis/10_gis_what_is_gis.html&gt;`_
+- `Installing Geopandas &lt;../notebooks/gis/15_gis_setup_geopanda.html&gt;`_
+- `Intro to Geopandas &lt;../notebooks/gis/20_gis_geopandas.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Mapping &lt;../notebooks/gis/70_gis_mapping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Spatial Joins &lt;../notebooks/gis/30_gis_spatial_joins.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Projections &lt;../notebooks/gis/40_gis_projections.html&gt;`_
+- `Projections and Geopandas &lt;../notebooks/gis/50_gis_crs_geopandas.html&gt;`_
+- `GIS Data Formats &lt;../notebooks/gis/60_gis_data.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5B43A5-E0AD-5444-A444-5EA0F1AB657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6433B6A-AAFD-1B4C-A0B0-EE0E61AFB9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37120" windowHeight="19620" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -247,15 +247,15 @@
 - `Intro to Geopandas &lt;../notebooks/gis/20_gis_geopandas.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Mapping &lt;../notebooks/gis/70_gis_mapping.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Spatial Joins &lt;../notebooks/gis/30_gis_spatial_joins.html&gt;`_</t>
   </si>
   <si>
     <t>- `Projections &lt;../notebooks/gis/40_gis_projections.html&gt;`_
 - `Projections and Geopandas &lt;../notebooks/gis/50_gis_crs_geopandas.html&gt;`_
 - `GIS Data Formats &lt;../notebooks/gis/60_gis_data.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Mapping &lt;../notebooks/gis/25_gis_mapping.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,7 +754,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -766,7 +766,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -777,7 +777,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7"/>
     </row>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6433B6A-AAFD-1B4C-A0B0-EE0E61AFB9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B2B5EB-1362-CC4F-9FC3-67294D8E3CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37120" windowHeight="19620" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="4080" yWindow="500" windowWidth="30240" windowHeight="17780" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Topic</t>
   </si>
@@ -192,25 +192,7 @@
     <t>- Larger Programs</t>
   </si>
   <si>
-    <t>Top Down Design</t>
-  </si>
-  <si>
-    <t>Monte Carlo and Poker Project</t>
-  </si>
-  <si>
-    <t>Poker Test Cases</t>
-  </si>
-  <si>
     <t>- SciKit-Learn</t>
-  </si>
-  <si>
-    <t>- pyGam</t>
-  </si>
-  <si>
-    <t>- Overview of LLMs</t>
-  </si>
-  <si>
-    <t>- LLM fine tuning with Hugging Face</t>
   </si>
   <si>
     <t>- Pandas: Reshaping
@@ -653,7 +635,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,13 +664,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
@@ -739,10 +721,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -751,10 +733,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -763,10 +745,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -774,10 +756,10 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -786,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>39</v>
@@ -798,22 +780,19 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7"/>
     </row>
@@ -822,34 +801,34 @@
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -861,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -873,19 +852,19 @@
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>52</v>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -896,7 +875,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -906,9 +885,7 @@
       <c r="B21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -937,20 +914,15 @@
       <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -961,9 +933,7 @@
       <c r="B26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -973,21 +943,17 @@
       <c r="B27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="C28" s="9"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B2B5EB-1362-CC4F-9FC3-67294D8E3CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E7EFBC-D861-3841-8253-3479FA2DED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="500" windowWidth="30240" windowHeight="17780" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>Topic</t>
   </si>
@@ -59,9 +59,6 @@
 - `Parquet Format &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Link &lt;exercises/Exercise_bigdata.html&gt;`_</t>
-  </si>
-  <si>
     <t>- Parallelism 
 - Distributed Computing</t>
   </si>
@@ -72,10 +69,6 @@
 (Note reading includes a 45 minute video to watch)</t>
   </si>
   <si>
-    <t>- `Dask &lt;exercises/Exercise_dask_realdata.html&gt;`_
-- `More dask (optional) &lt;exercises/Exercise_dask.html&gt;`_</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -161,13 +154,6 @@
 - `Solving Performance Problems &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_</t>
   </si>
   <si>
-    <t>- Raster Data
-- Intro to Rasterio</t>
-  </si>
-  <si>
-    <t>- Remote Sensing and Satellite Data</t>
-  </si>
-  <si>
     <t>- Network Data</t>
   </si>
   <si>
@@ -181,15 +167,6 @@
   </si>
   <si>
     <t>**NO CLASS**</t>
-  </si>
-  <si>
-    <t>- NLP</t>
-  </si>
-  <si>
-    <t>- Advanced Modelling</t>
-  </si>
-  <si>
-    <t>- Larger Programs</t>
   </si>
   <si>
     <t>- SciKit-Learn</t>
@@ -204,12 +181,6 @@
 - `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Link &lt;../ids720_specific/exercises/Exercise_reshaping.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- GIS</t>
-  </si>
-  <si>
     <t>- Supervised ML</t>
   </si>
   <si>
@@ -238,13 +209,59 @@
   </si>
   <si>
     <t>- `Mapping &lt;../notebooks/gis/25_gis_mapping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../ids720_specific/exercises/exercise_reshaping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/exercise_bigdata.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Dask &lt;exercises/exercise_dask_realdata.html&gt;`_
+- `More dask (optional) &lt;exercises/exercise_dask.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Raster Data
+- Intro to Rasterio and X-Array</t>
+  </si>
+  <si>
+    <t>- Plotting raster data</t>
+  </si>
+  <si>
+    <t>- Remote Sensing and Satellite Data
+- Band Algebra</t>
+  </si>
+  <si>
+    <t>- Reprojection, resampling, and interpolation</t>
+  </si>
+  <si>
+    <t>- GIS: Mixing Vector and Raster</t>
+  </si>
+  <si>
+    <t>- Zonal aggregation (summary statistics)
+- Rasterization/Geohashing</t>
+  </si>
+  <si>
+    <t>- GIS: Rasters</t>
+  </si>
+  <si>
+    <t>-GIS: Vector Data</t>
+  </si>
+  <si>
+    <t>- Solving Problems with Data</t>
+  </si>
+  <si>
+    <t>- `Solving Problems with Data &lt;https://ds4humans.com/10_introduction/10_solving_problems_with_data.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Problem Taxonomy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -272,6 +289,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1F2328"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -314,10 +337,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,7 +669,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -661,27 +683,27 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
@@ -690,7 +712,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -699,261 +721,262 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="7"/>
+        <v>41</v>
+      </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +986,7 @@
       <c r="C29" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E7EFBC-D861-3841-8253-3479FA2DED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2DF520-35D4-AC4F-A5B7-759CAD57941E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="500" windowWidth="30240" windowHeight="17780" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2DF520-35D4-AC4F-A5B7-759CAD57941E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D166257-D0C1-FC4C-9545-F6411A86F623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="500" windowWidth="30240" windowHeight="17780" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -657,7 +657,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D166257-D0C1-FC4C-9545-F6411A86F623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2DEDA9-9FEF-6D42-B087-BB7F4122954A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="500" windowWidth="30240" windowHeight="17780" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -187,10 +187,6 @@
     <t>- Machine Learning</t>
   </si>
   <si>
-    <t>- Unsupervised versus Supervised Machine Learning
-- Clustering</t>
-  </si>
-  <si>
     <t>- Prediction versus Inference
 - Supervised ML Workflow</t>
   </si>
@@ -255,6 +251,10 @@
   </si>
   <si>
     <t>- Problem Taxonomy</t>
+  </si>
+  <si>
+    <t>- Géron, Chpt 1: The Machine Learning Landscape (stop before "Batch and Online Learning," then read the "Testing and Validating" section)
+- Géron, Chpt 2: End-to-End Machine Learning Project</t>
   </si>
 </sst>
 </file>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,7 +692,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -743,10 +743,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -755,10 +755,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -767,10 +767,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -778,10 +778,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -790,10 +790,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -802,10 +802,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -814,10 +814,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -825,10 +825,10 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -836,13 +836,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -850,7 +850,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -862,7 +862,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -893,10 +893,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -904,10 +904,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -932,7 +932,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="7"/>
     </row>
@@ -941,7 +941,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="6"/>
     </row>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2DEDA9-9FEF-6D42-B087-BB7F4122954A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAE7169-022A-BF45-AEA0-2383E30AEA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>Topic</t>
   </si>
@@ -255,6 +255,9 @@
   <si>
     <t>- Géron, Chpt 1: The Machine Learning Landscape (stop before "Batch and Online Learning," then read the "Testing and Validating" section)
 - Géron, Chpt 2: End-to-End Machine Learning Project</t>
+  </si>
+  <si>
+    <t>- Working with Text</t>
   </si>
 </sst>
 </file>
@@ -656,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,40 +710,44 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>62</v>
@@ -752,7 +759,7 @@
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>62</v>
@@ -764,7 +771,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>62</v>
@@ -775,7 +782,7 @@
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>62</v>
@@ -787,7 +794,7 @@
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>61</v>
@@ -799,7 +806,7 @@
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>61</v>
@@ -811,7 +818,7 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>61</v>
@@ -822,7 +829,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>61</v>
@@ -833,7 +840,7 @@
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>59</v>
@@ -844,7 +851,7 @@
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>46</v>
@@ -856,7 +863,7 @@
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>46</v>
@@ -867,7 +874,7 @@
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>46</v>
@@ -879,7 +886,7 @@
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>46</v>
@@ -890,7 +897,7 @@
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>63</v>
@@ -901,7 +908,7 @@
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>63</v>
@@ -912,7 +919,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
@@ -920,7 +927,7 @@
     </row>
     <row r="23" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>41</v>
@@ -929,7 +936,7 @@
     </row>
     <row r="24" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>63</v>
@@ -938,51 +945,45 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>40</v>
+      <c r="B28" t="s">
+        <v>5</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAE7169-022A-BF45-AEA0-2383E30AEA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B9DBE2-ACB0-A443-B8B7-805465C4E82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -176,11 +176,6 @@
 - Pandas: Categoricals</t>
   </si>
   <si>
-    <t>- Wes McKinney's *Python for Data Analysis*, Third Edition, Chapter 8, Section 3. Available `online through duke library free &lt;https://learning.oreilly.com/library/view/python-for-data/9781098104023/ch08.html#prep_reshape&gt;`_
-- `Tidy Data Format: the goal of reshaping &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
-- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_</t>
-  </si>
-  <si>
     <t>- Supervised ML</t>
   </si>
   <si>
@@ -258,6 +253,11 @@
   </si>
   <si>
     <t>- Working with Text</t>
+  </si>
+  <si>
+    <t>- `Tidy Data Format: the goal of reshaping &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
+- `Reshaping &lt;../notebooks/class_3/week_4/20.2_reshaping_data.html&gt;`_
+- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,10 +692,10 @@
         <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -734,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -750,10 +750,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -762,10 +762,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -774,10 +774,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -785,10 +785,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -797,10 +797,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -809,10 +809,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -821,10 +821,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -832,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -843,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -854,10 +854,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -866,10 +866,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -877,10 +877,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="8"/>
     </row>
@@ -889,7 +889,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>42</v>
@@ -900,10 +900,10 @@
         <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -911,10 +911,10 @@
         <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -939,7 +939,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7"/>
     </row>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B9DBE2-ACB0-A443-B8B7-805465C4E82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8A0A41-EE78-8B46-89EF-57AC37D0BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="2500" yWindow="2720" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Topic</t>
   </si>
@@ -72,84 +72,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Th Jan 9</t>
-  </si>
-  <si>
-    <t>Tu Jan 14</t>
-  </si>
-  <si>
-    <t>Th Jan 16</t>
-  </si>
-  <si>
-    <t>Tu Jan 21</t>
-  </si>
-  <si>
-    <t>Th Jan 23</t>
-  </si>
-  <si>
-    <t>Tu Jan 28</t>
-  </si>
-  <si>
-    <t>Th Jan 30</t>
-  </si>
-  <si>
-    <t>Tu Feb 4</t>
-  </si>
-  <si>
-    <t>Th Feb 6</t>
-  </si>
-  <si>
-    <t>Tu Feb 11</t>
-  </si>
-  <si>
-    <t>Th Feb 13</t>
-  </si>
-  <si>
-    <t>Tu Feb 18</t>
-  </si>
-  <si>
-    <t>Th Feb 20</t>
-  </si>
-  <si>
-    <t>Tu Feb 25</t>
-  </si>
-  <si>
-    <t>Th Feb 27</t>
-  </si>
-  <si>
-    <t>Tu Mar 4</t>
-  </si>
-  <si>
-    <t>Th Mar 6</t>
-  </si>
-  <si>
-    <t>Tu Mar 11</t>
-  </si>
-  <si>
-    <t>Th Mar 13</t>
-  </si>
-  <si>
-    <t>Tu Mar 18</t>
-  </si>
-  <si>
-    <t>Th Mar 20</t>
-  </si>
-  <si>
-    <t>Tu Mar 25</t>
-  </si>
-  <si>
-    <t>Th Mar 27</t>
-  </si>
-  <si>
-    <t>Tu Apr 1</t>
-  </si>
-  <si>
-    <t>Th Apr 3</t>
-  </si>
-  <si>
-    <t>Tu Apr 8</t>
-  </si>
-  <si>
     <t>- `Understanding Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/40_performance_understanding.html&gt;`_
 - `Solving Performance Problems &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_</t>
   </si>
@@ -258,6 +180,93 @@
     <t>- `Tidy Data Format: the goal of reshaping &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
 - `Reshaping &lt;../notebooks/class_3/week_4/20.2_reshaping_data.html&gt;`_
 - `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>Mon Jan 12</t>
+  </si>
+  <si>
+    <t>Wed Jan 14</t>
+  </si>
+  <si>
+    <t>Mon Jan 19</t>
+  </si>
+  <si>
+    <t>Wed Jan 21</t>
+  </si>
+  <si>
+    <t>Mon Jan 26</t>
+  </si>
+  <si>
+    <t>Wed Jan 28</t>
+  </si>
+  <si>
+    <t>Mon Feb 2</t>
+  </si>
+  <si>
+    <t>Wed Feb 4</t>
+  </si>
+  <si>
+    <t>Mon Feb 9</t>
+  </si>
+  <si>
+    <t>Wed Feb 11</t>
+  </si>
+  <si>
+    <t>Mon Feb 16</t>
+  </si>
+  <si>
+    <t>Wed Feb 18</t>
+  </si>
+  <si>
+    <t>Mon Feb 23</t>
+  </si>
+  <si>
+    <t>Wed Feb 25</t>
+  </si>
+  <si>
+    <t>Mon Mar 2</t>
+  </si>
+  <si>
+    <t>Wed Mar 4</t>
+  </si>
+  <si>
+    <t>Mon Mar 9</t>
+  </si>
+  <si>
+    <t>Wed Mar 11</t>
+  </si>
+  <si>
+    <t>Mon Mar 16</t>
+  </si>
+  <si>
+    <t>Wed Mar 18</t>
+  </si>
+  <si>
+    <t>Mon Mar 23</t>
+  </si>
+  <si>
+    <t>Wed Mar 25</t>
+  </si>
+  <si>
+    <t>Mon Mar 30</t>
+  </si>
+  <si>
+    <t>Wed Apr 1</t>
+  </si>
+  <si>
+    <t>Mon Apr 6</t>
+  </si>
+  <si>
+    <t>Wed Apr 8</t>
+  </si>
+  <si>
+    <t>Mon Apr 13</t>
+  </si>
+  <si>
+    <t>Wed Apr 15</t>
+  </si>
+  <si>
+    <t>**SPRING BREAK**</t>
   </si>
 </sst>
 </file>
@@ -657,9 +666,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -684,48 +693,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
@@ -734,260 +743,267 @@
         <v>8</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>66</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="9"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
       <c r="B24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8A0A41-EE78-8B46-89EF-57AC37D0BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A430C4-0E53-1E44-AA38-52DEC185817B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2720" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
-    <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="class_schedule_541" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>Topic</t>
   </si>
@@ -104,10 +104,6 @@
     <t>- Machine Learning</t>
   </si>
   <si>
-    <t>- Prediction versus Inference
-- Supervised ML Workflow</t>
-  </si>
-  <si>
     <t>- `What is GIS? &lt;../notebooks/gis/10_gis_what_is_gis.html&gt;`_
 - `Installing Geopandas &lt;../notebooks/gis/15_gis_setup_geopanda.html&gt;`_
 - `Intro to Geopandas &lt;../notebooks/gis/20_gis_geopandas.html&gt;`_</t>
@@ -134,25 +130,7 @@
 - `More dask (optional) &lt;exercises/exercise_dask.html&gt;`_</t>
   </si>
   <si>
-    <t>- Raster Data
-- Intro to Rasterio and X-Array</t>
-  </si>
-  <si>
-    <t>- Plotting raster data</t>
-  </si>
-  <si>
-    <t>- Remote Sensing and Satellite Data
-- Band Algebra</t>
-  </si>
-  <si>
-    <t>- Reprojection, resampling, and interpolation</t>
-  </si>
-  <si>
     <t>- GIS: Mixing Vector and Raster</t>
-  </si>
-  <si>
-    <t>- Zonal aggregation (summary statistics)
-- Rasterization/Geohashing</t>
   </si>
   <si>
     <t>- GIS: Rasters</t>
@@ -267,13 +245,55 @@
   </si>
   <si>
     <t>**SPRING BREAK**</t>
+  </si>
+  <si>
+    <t>- Git and github</t>
+  </si>
+  <si>
+    <t>- `PGDA Chpt 7 through 7.2 (x-array) &lt;https://pythongis.org/part2/chapter-07/nb/0-learning-objectives.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `PGDA 7.3 through "Creating a raster mosaic by merging datasets" &lt;https://pythongis.org/part2/chapter-07/nb/02-common-raster-operations.html&gt;`_ (stop before Raster to vector conversion)</t>
+  </si>
+  <si>
+    <t>- `PGDA 7.5 &lt;https://pythongis.org/part2/chapter-07/nb/04-map-algebra.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `PGDA 7.4 &lt;https://pythongis.org/part2/chapter-07/nb/03-coordinate-reference-systems-raster.html&gt;`_
+- `PGDA 7.3 Resampling Section &lt;https://pythongis.org/part2/chapter-07/nb/02-common-raster-operations.html#resampling-raster-data&gt;`_</t>
+  </si>
+  <si>
+    <t>- Defensive Programming: from `first reading &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_ through `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
+- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
+- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
+- `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Git and Github &lt;../notebooks/PDS_not_yet_in_coursera/10_commandline/git_and_github.html&gt;`_
+- `Create an ssh key and register with ssh-agent (you don't need to create a passphrase) &lt;https://docs.github.com/en/authentication/connecting-to-github-with-ssh/generating-a-new-ssh-key-and-adding-it-to-the-ssh-agent&gt;`_
+- If you don't have a github account, make one. Register a passkey or at least two factor authentication.
+- `Add your ssh key to your github account &lt;https://docs.github.com/en/authentication/connecting-to-github-with-ssh/adding-a-new-ssh-key-to-your-github-account&gt;`_
+- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;../exercises/exercise_git.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;../exercises/exercise_git_2.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Inference and Prediction &lt;../notebooks/class_5/week_3/20_inference_v_prediction.html&gt;`_
+- Supervised ML Workflow</t>
+  </si>
+  <si>
+    <t>- `PGDA 7.3 "Raster to vector conversion" and "Vector to raster conversion" &lt;https://pythongis.org/part2/chapter-07/nb/02-common-raster-operations.html#raster-to-vector-conversion-vectorize&gt;`_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,12 +321,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF1F2328"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -328,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -350,8 +364,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,21 +707,21 @@
     </row>
     <row r="2" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -718,12 +730,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -734,7 +746,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
@@ -743,170 +755,170 @@
         <v>8</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>19</v>
@@ -917,7 +929,7 @@
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>19</v>
@@ -928,75 +940,91 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A430C4-0E53-1E44-AA38-52DEC185817B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1973D7-333F-6143-9C98-33CBAF6BEF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>- `Mapping &lt;../notebooks/gis/25_gis_mapping.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Link &lt;../ids720_specific/exercises/exercise_reshaping.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/exercise_bigdata.html&gt;`_</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>- `PGDA 7.3 "Raster to vector conversion" and "Vector to raster conversion" &lt;https://pythongis.org/part2/chapter-07/nb/02-common-raster-operations.html#raster-to-vector-conversion-vectorize&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;../exercises/exercise_reshaping.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,21 +707,21 @@
     </row>
     <row r="2" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -730,12 +730,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
@@ -755,15 +755,15 @@
         <v>8</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>20</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>23</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>22</v>
@@ -807,118 +807,118 @@
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>19</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>19</v>
@@ -940,57 +940,57 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>11</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>11</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1973D7-333F-6143-9C98-33CBAF6BEF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8DB3F7-7F03-5E49-8561-343D394C9517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule_541" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>- Big Data: What is it, how do I work with it?</t>
   </si>
   <si>
-    <t>- Speed and Performance in Python</t>
-  </si>
-  <si>
     <t>LAST CLASS</t>
   </si>
   <si>
@@ -92,10 +89,6 @@
   </si>
   <si>
     <t>- SciKit-Learn</t>
-  </si>
-  <si>
-    <t>- Pandas: Reshaping
-- Pandas: Categoricals</t>
   </si>
   <si>
     <t>- Supervised ML</t>
@@ -287,6 +280,13 @@
   </si>
   <si>
     <t>- `Link &lt;../exercises/exercise_reshaping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Pandas: Reshaping</t>
+  </si>
+  <si>
+    <t>- Speed and Performance in Python
+- Pandas: Categoricals</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -707,327 +707,327 @@
     </row>
     <row r="2" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8DB3F7-7F03-5E49-8561-343D394C9517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EAC2A4-113B-3B4F-BA0F-4C7F0B0978FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Topic</t>
   </si>
@@ -97,11 +97,6 @@
     <t>- Machine Learning</t>
   </si>
   <si>
-    <t>- `What is GIS? &lt;../notebooks/gis/10_gis_what_is_gis.html&gt;`_
-- `Installing Geopandas &lt;../notebooks/gis/15_gis_setup_geopanda.html&gt;`_
-- `Intro to Geopandas &lt;../notebooks/gis/20_gis_geopandas.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Spatial Joins &lt;../notebooks/gis/30_gis_spatial_joins.html&gt;`_</t>
   </si>
   <si>
@@ -110,9 +105,6 @@
 - `GIS Data Formats &lt;../notebooks/gis/60_gis_data.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Mapping &lt;../notebooks/gis/25_gis_mapping.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/exercise_bigdata.html&gt;`_</t>
   </si>
   <si>
@@ -140,9 +132,6 @@
   <si>
     <t>- Géron, Chpt 1: The Machine Learning Landscape (stop before "Batch and Online Learning," then read the "Testing and Validating" section)
 - Géron, Chpt 2: End-to-End Machine Learning Project</t>
-  </si>
-  <si>
-    <t>- Working with Text</t>
   </si>
   <si>
     <t>- `Tidy Data Format: the goal of reshaping &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
@@ -287,6 +276,24 @@
   <si>
     <t>- Speed and Performance in Python
 - Pandas: Categoricals</t>
+  </si>
+  <si>
+    <t>- MLK DAY NO CLASS</t>
+  </si>
+  <si>
+    <t>- `Mapping &lt;exercises/exercise_mapping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Continue mapping, discuss colormaps</t>
+  </si>
+  <si>
+    <t>- `What is GIS? &lt;../notebooks/gis/10_gis_what_is_gis.html&gt;`_
+- `Installing Geopandas &lt;../notebooks/gis/15_gis_setup_geopanda.html&gt;`_
+- `Intro to Geopandas &lt;../notebooks/gis/20_gis_geopandas.html&gt;`_
+- `Mapping &lt;../notebooks/gis/25_gis_mapping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Continue mapping exercise</t>
   </si>
 </sst>
 </file>
@@ -342,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -364,6 +371,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,218 +715,221 @@
     </row>
     <row r="2" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>17</v>
@@ -929,7 +940,7 @@
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
@@ -940,57 +951,57 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -1001,7 +1012,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>10</v>
@@ -1013,7 +1024,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -1024,7 +1035,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EAC2A4-113B-3B4F-BA0F-4C7F0B0978FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07D0871-DD5B-DC4F-B2B4-82BA2EA10DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -284,16 +284,16 @@
     <t>- `Mapping &lt;exercises/exercise_mapping.html&gt;`_</t>
   </si>
   <si>
-    <t>- Continue mapping, discuss colormaps</t>
-  </si>
-  <si>
-    <t>- `What is GIS? &lt;../notebooks/gis/10_gis_what_is_gis.html&gt;`_
+    <t xml:space="preserve">- `What is GIS? &lt;../notebooks/gis/10_gis_what_is_gis.html&gt;`_
 - `Installing Geopandas &lt;../notebooks/gis/15_gis_setup_geopanda.html&gt;`_
 - `Intro to Geopandas &lt;../notebooks/gis/20_gis_geopandas.html&gt;`_
-- `Mapping &lt;../notebooks/gis/25_gis_mapping.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- Continue mapping exercise</t>
+</t>
+  </si>
+  <si>
+    <t>- `Mapping &lt;../notebooks/gis/25_gis_mapping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Census &lt;exercises/exercise_census.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -782,10 +782,10 @@
         <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -809,19 +809,19 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="7"/>
     </row>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07D0871-DD5B-DC4F-B2B4-82BA2EA10DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667AC225-A25D-2340-AE31-CC3FCFF2A1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>Topic</t>
   </si>
@@ -79,12 +79,6 @@
     <t>- Intro to graph-tool</t>
   </si>
   <si>
-    <t>- Community Detection</t>
-  </si>
-  <si>
-    <t>- Shortest Path</t>
-  </si>
-  <si>
     <t>**NO CLASS**</t>
   </si>
   <si>
@@ -106,10 +100,6 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/exercise_bigdata.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Dask &lt;exercises/exercise_dask_realdata.html&gt;`_
-- `More dask (optional) &lt;exercises/exercise_dask.html&gt;`_</t>
   </si>
   <si>
     <t>- GIS: Mixing Vector and Raster</t>
@@ -294,6 +284,19 @@
   </si>
   <si>
     <t>- `Census &lt;exercises/exercise_census.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Community Detection
+- Shortest Path</t>
+  </si>
+  <si>
+    <t>- More Dask</t>
+  </si>
+  <si>
+    <t>- `Dask &lt;exercises/exercise_dask.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Dask ARCOS &lt;exercises/exercise_dask_arcos.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,24 +718,24 @@
     </row>
     <row r="2" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
@@ -740,15 +743,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -757,12 +760,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -771,32 +774,29 @@
         <v>7</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>74</v>
@@ -804,238 +804,241 @@
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>

--- a/ids541_specific/class_schedule_541_xlsx.xlsx
+++ b/ids541_specific/class_schedule_541_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids541_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667AC225-A25D-2340-AE31-CC3FCFF2A1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B5288-67BD-1D4A-A9EB-9E287AAB66B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>Topic</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>- `Solving Problems with Data &lt;https://ds4humans.com/10_introduction/10_solving_problems_with_data.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- Problem Taxonomy</t>
   </si>
   <si>
     <t>- Géron, Chpt 1: The Machine Learning Landscape (stop before "Batch and Online Learning," then read the "Testing and Validating" section)
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>- `Dask ARCOS &lt;exercises/exercise_dask_arcos.html&gt;`_</t>
+  </si>
+  <si>
+    <t>**SNOW**</t>
   </si>
 </sst>
 </file>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,24 +718,24 @@
     </row>
     <row r="2" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
@@ -743,15 +743,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -763,259 +763,255 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="C14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
       <c r="B24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>61</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>10</v>
@@ -1027,18 +1023,18 @@
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
